--- a/tests/data/output/一级测试用例-f0003_result.xlsx
+++ b/tests/data/output/一级测试用例-f0003_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="386">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -1426,6 +1426,9 @@
     <t>per_com_city=合肥市</t>
   </si>
   <si>
+    <t>per_com_city=</t>
+  </si>
+  <si>
     <t>name;
 id_card_no</t>
   </si>
@@ -1469,217 +1472,220 @@
     <t>false</t>
   </si>
   <si>
-    <t>{"name":"温丽华","id_card_no":"450324197001258680"}</t>
-  </si>
-  <si>
-    <t>{"name":"蒯平","id_card_no":"370105193004276528"}</t>
-  </si>
-  <si>
-    <t>{"name":"朱倩","id_card_no":"150521194509205640"}</t>
-  </si>
-  <si>
-    <t>{"name":"冷春梅","id_card_no":"610729195310169686"}</t>
-  </si>
-  <si>
-    <t>{"name":"喻东","id_card_no":"540237198808301582"}</t>
-  </si>
-  <si>
-    <t>{"name":"鲍柳","id_card_no":"610600196304260340"}</t>
-  </si>
-  <si>
-    <t>{"name":"施亮","id_card_no":"411425193803265927"}</t>
-  </si>
-  <si>
-    <t>{"name":"解涛","id_card_no":"653101195002037535"}</t>
-  </si>
-  <si>
-    <t>{"name":"时杨","id_card_no":"350901196810120155"}</t>
-  </si>
-  <si>
-    <t>{"name":"卢娜","id_card_no":"51072719670415838X"}</t>
-  </si>
-  <si>
-    <t>{"name":"班莹","id_card_no":"44160119290816738X"}</t>
-  </si>
-  <si>
-    <t>{"name":"陈帆","id_card_no":"360731198003296195"}</t>
-  </si>
-  <si>
-    <t>{"name":"梁淑兰","id_card_no":"522728198005143911"}</t>
-  </si>
-  <si>
-    <t>{"name":"南玉华","id_card_no":"530825195805067745"}</t>
-  </si>
-  <si>
-    <t>{"name":"令莉","id_card_no":"110114198807151359"}</t>
-  </si>
-  <si>
-    <t>{"name":"安秀英","id_card_no":"130803196002170580"}</t>
-  </si>
-  <si>
-    <t>{"name":"邓龙","id_card_no":"361027197304208535"}</t>
-  </si>
-  <si>
-    <t>{"name":"景倩","id_card_no":"331082193108165356"}</t>
-  </si>
-  <si>
-    <t>{"name":"家瑜","id_card_no":"411302196404296754"}</t>
-  </si>
-  <si>
-    <t>{"name":"微瑞","id_card_no":"150524198108152266"}</t>
-  </si>
-  <si>
-    <t>{"name":"人淑华","id_card_no":"370601194705013946"}</t>
-  </si>
-  <si>
-    <t>{"name":"门波","id_card_no":"430481198309069513"}</t>
-  </si>
-  <si>
-    <t>{"name":"郑云","id_card_no":"632525196005318191"}</t>
-  </si>
-  <si>
-    <t>{"name":"车坤","id_card_no":"640500195305271186"}</t>
-  </si>
-  <si>
-    <t>{"name":"吕淑英","id_card_no":"370521196306243823"}</t>
-  </si>
-  <si>
-    <t>{"name":"濮霞","id_card_no":"341201193702089143"}</t>
-  </si>
-  <si>
-    <t>{"name":"束俊","id_card_no":"330900196510136040"}</t>
-  </si>
-  <si>
-    <t>{"name":"万东","id_card_no":"341204194608078951"}</t>
-  </si>
-  <si>
-    <t>{"name":"崔秀珍","id_card_no":"341881196502186860"}</t>
-  </si>
-  <si>
-    <t>{"name":"田瑜","id_card_no":"632200195208048816"}</t>
-  </si>
-  <si>
-    <t>{"name":"阮桂芳","id_card_no":"511129198903136351"}</t>
-  </si>
-  <si>
-    <t>{"name":"跋萍","id_card_no":"210503194711020408"}</t>
-  </si>
-  <si>
-    <t>{"name":"濮颖","id_card_no":"652300193701293241"}</t>
-  </si>
-  <si>
-    <t>{"name":"常琳","id_card_no":"230406197109153639"}</t>
-  </si>
-  <si>
-    <t>{"name":"姜秀荣","id_card_no":"440501199804031301"}</t>
-  </si>
-  <si>
-    <t>{"name":"宫桂英","id_card_no":"420102199910043307"}</t>
-  </si>
-  <si>
-    <t>{"name":"涂秀云","id_card_no":"500117197904210135"}</t>
-  </si>
-  <si>
-    <t>{"name":"百玉兰","id_card_no":"445224193809079414"}</t>
-  </si>
-  <si>
-    <t>{"name":"官洋","id_card_no":"320204198402234895"}</t>
-  </si>
-  <si>
-    <t>{"name":"唐欣","id_card_no":"530101194604057977"}</t>
-  </si>
-  <si>
-    <t>{"name":"潘岩","id_card_no":"320723197908075563"}</t>
-  </si>
-  <si>
-    <t>{"name":"甘欢","id_card_no":"410182195112145132"}</t>
-  </si>
-  <si>
-    <t>{"name":"束利","id_card_no":"440400196612118917"}</t>
-  </si>
-  <si>
-    <t>{"name":"翟旭","id_card_no":"361126193901041025"}</t>
-  </si>
-  <si>
-    <t>{"name":"娄博","id_card_no":"532531198003284031"}</t>
-  </si>
-  <si>
-    <t>{"name":"申秀兰","id_card_no":"532325197006241472"}</t>
-  </si>
-  <si>
-    <t>{"name":"辛婷","id_card_no":"340404193809280377"}</t>
-  </si>
-  <si>
-    <t>{"name":"经桂荣","id_card_no":"542226193006263246"}</t>
-  </si>
-  <si>
-    <t>{"name":"饶东","id_card_no":"421000196809090917"}</t>
-  </si>
-  <si>
-    <t>{"name":"戴洋","id_card_no":"61082219321213545X"}</t>
-  </si>
-  <si>
-    <t>{"name":"公欣","id_card_no":"370784196805049511"}</t>
-  </si>
-  <si>
-    <t>{"name":"公红梅","id_card_no":"410103195307263846"}</t>
-  </si>
-  <si>
-    <t>{"name":"施玲","id_card_no":"420529199608142322"}</t>
-  </si>
-  <si>
-    <t>{"name":"酆磊","id_card_no":"140800195102052811"}</t>
-  </si>
-  <si>
-    <t>{"name":"于明","id_card_no":"513223193808314208"}</t>
-  </si>
-  <si>
-    <t>{"name":"井霞","id_card_no":"530923197405268021"}</t>
-  </si>
-  <si>
-    <t>{"name":"宓阳","id_card_no":"652201196405258059"}</t>
-  </si>
-  <si>
-    <t>{"name":"鲜桂芝","id_card_no":"652822197301248795"}</t>
-  </si>
-  <si>
-    <t>{"name":"韦雪梅","id_card_no":"220600195609214444"}</t>
-  </si>
-  <si>
-    <t>{"name":"微波","id_card_no":"360121194811168569"}</t>
-  </si>
-  <si>
-    <t>{"name":"厍雪梅","id_card_no":"141122199806119948"}</t>
-  </si>
-  <si>
-    <t>{"name":"公亮","id_card_no":"510112199512132093"}</t>
-  </si>
-  <si>
-    <t>{"name":"养金凤","id_card_no":"110229197302042259"}</t>
-  </si>
-  <si>
-    <t>{"name":"百丽","id_card_no":"140222195003316290"}</t>
-  </si>
-  <si>
-    <t>{"name":"暨雪梅","id_card_no":"371002195906238980"}</t>
-  </si>
-  <si>
-    <t>{"name":"文瑞","id_card_no":"620922198310115508"}</t>
-  </si>
-  <si>
-    <t>{"name":"拓伟","id_card_no":"431201195308049961"}</t>
-  </si>
-  <si>
-    <t>{"name":"匡婷婷","id_card_no":"371201197509156838"}</t>
-  </si>
-  <si>
-    <t>{"name":"宇颖","id_card_no":"440781199901134620"}</t>
-  </si>
-  <si>
-    <t>{"name":"官勇","id_card_no":"511400197711171389"}</t>
-  </si>
-  <si>
-    <t>{"name":"轩颖","id_card_no":"431381200008229961"}</t>
+    <t>{"name":"督静","id_card_no":"310104194607283601"}</t>
+  </si>
+  <si>
+    <t>{"name":"丘红","id_card_no":"361102195409186503"}</t>
+  </si>
+  <si>
+    <t>{"name":"储岩","id_card_no":"51332319680203778X"}</t>
+  </si>
+  <si>
+    <t>{"name":"凌丽","id_card_no":"230221193511088382"}</t>
+  </si>
+  <si>
+    <t>{"name":"粱淑兰","id_card_no":"610423198111068486"}</t>
+  </si>
+  <si>
+    <t>{"name":"饶瑞","id_card_no":"53082319570114503X"}</t>
+  </si>
+  <si>
+    <t>{"name":"却雷","id_card_no":"65222219640524285X"}</t>
+  </si>
+  <si>
+    <t>{"name":"师雷","id_card_no":"21038119480904051X"}</t>
+  </si>
+  <si>
+    <t>{"name":"马玉英","id_card_no":"44090219871111147X"}</t>
+  </si>
+  <si>
+    <t>{"name":"雷桂香","id_card_no":"370000198606099544"}</t>
+  </si>
+  <si>
+    <t>{"name":"殳瑜","id_card_no":"652222198909080312"}</t>
+  </si>
+  <si>
+    <t>{"name":"易东","id_card_no":"440701198603287294"}</t>
+  </si>
+  <si>
+    <t>{"name":"鲜雷","id_card_no":"632521195905229581"}</t>
+  </si>
+  <si>
+    <t>{"name":"臧晨","id_card_no":"320831195807238585"}</t>
+  </si>
+  <si>
+    <t>{"name":"云小红","id_card_no":"220402193904102456"}</t>
+  </si>
+  <si>
+    <t>{"name":"南秀荣","id_card_no":"360427193703230847"}</t>
+  </si>
+  <si>
+    <t>{"name":"佴玉梅","id_card_no":"361030197002133679"}</t>
+  </si>
+  <si>
+    <t>{"name":"司冬梅","id_card_no":"440205193807262764"}</t>
+  </si>
+  <si>
+    <t>{"name":"郎琳","id_card_no":"130903194203252554"}</t>
+  </si>
+  <si>
+    <t>{"name":"东博","id_card_no":"370684198007075380"}</t>
+  </si>
+  <si>
+    <t>{"name":"汤秀荣","id_card_no":"150923198603080066"}</t>
+  </si>
+  <si>
+    <t>{"name":"郗宇","id_card_no":"341003196911120130"}</t>
+  </si>
+  <si>
+    <t>{"name":"充小红","id_card_no":"341800196610270412"}</t>
+  </si>
+  <si>
+    <t>{"name":"桑鹏","id_card_no":"532504193112180619"}</t>
+  </si>
+  <si>
+    <t>{"name":"司军","id_card_no":"310106197401036097"}</t>
+  </si>
+  <si>
+    <t>{"name":"邱云","id_card_no":"350128196108027969"}</t>
+  </si>
+  <si>
+    <t>{"name":"刁秀荣","id_card_no":"150103199108168779"}</t>
+  </si>
+  <si>
+    <t>{"name":"谈磊","id_card_no":"350801198707109963"}</t>
+  </si>
+  <si>
+    <t>{"name":"印健","id_card_no":"210104196101174227"}</t>
+  </si>
+  <si>
+    <t>{"name":"潘龙","id_card_no":"632322196211189730"}</t>
+  </si>
+  <si>
+    <t>{"name":"车晶","id_card_no":"410222194008028870"}</t>
+  </si>
+  <si>
+    <t>{"name":"郏洋","id_card_no":"510623193901102209"}</t>
+  </si>
+  <si>
+    <t>{"name":"敖磊","id_card_no":"341225199607029706"}</t>
+  </si>
+  <si>
+    <t>{"name":"羊玉珍","id_card_no":"211404194004251081"}</t>
+  </si>
+  <si>
+    <t>{"name":"裴涛","id_card_no":"654021199805095543"}</t>
+  </si>
+  <si>
+    <t>{"name":"扈建平","id_card_no":"130632196909203820"}</t>
+  </si>
+  <si>
+    <t>{"name":"羿桂荣","id_card_no":"445281197801272872"}</t>
+  </si>
+  <si>
+    <t>{"name":"凌建","id_card_no":"431382194808193512"}</t>
+  </si>
+  <si>
+    <t>{"name":"苏丽华","id_card_no":"451029199301313018"}</t>
+  </si>
+  <si>
+    <t>{"name":"海桂荣","id_card_no":"450600193806255580"}</t>
+  </si>
+  <si>
+    <t>{"name":"熊桂花","id_card_no":"13020019871010213X"}</t>
+  </si>
+  <si>
+    <t>{"name":"卞博","id_card_no":"350304195008257500"}</t>
+  </si>
+  <si>
+    <t>{"name":"饶桂花","id_card_no":"430500198311229560"}</t>
+  </si>
+  <si>
+    <t>{"name":"离秀兰","id_card_no":"440116199904088818"}</t>
+  </si>
+  <si>
+    <t>{"name":"颜兵","id_card_no":"51130019630815321X"}</t>
+  </si>
+  <si>
+    <t>{"name":"延林","id_card_no":"130424197406043806"}</t>
+  </si>
+  <si>
+    <t>{"name":"于云","id_card_no":"141100194408141743"}</t>
+  </si>
+  <si>
+    <t>{"name":"蔚娟","id_card_no":"410700195202095739"}</t>
+  </si>
+  <si>
+    <t>{"name":"闾玉","id_card_no":"36112719991016272X"}</t>
+  </si>
+  <si>
+    <t>{"name":"马林","id_card_no":"371083197206290080"}</t>
+  </si>
+  <si>
+    <t>{"name":"车敏","id_card_no":"445200199103051512"}</t>
+  </si>
+  <si>
+    <t>{"name":"汲强","id_card_no":"513437193608011498"}</t>
+  </si>
+  <si>
+    <t>{"name":"涂军","id_card_no":"211003199805259491"}</t>
+  </si>
+  <si>
+    <t>{"name":"桂秀荣","id_card_no":"150222197010273787"}</t>
+  </si>
+  <si>
+    <t>{"name":"阙鹏","id_card_no":"450881199402216282"}</t>
+  </si>
+  <si>
+    <t>{"name":"孙春梅","id_card_no":"420114197003124441"}</t>
+  </si>
+  <si>
+    <t>{"name":"宦亮","id_card_no":"130101197103095253"}</t>
+  </si>
+  <si>
+    <t>{"name":"后平","id_card_no":"522723199108027318"}</t>
+  </si>
+  <si>
+    <t>{"name":"阮楠","id_card_no":"441502198410227435"}</t>
+  </si>
+  <si>
+    <t>{"name":"谷柳","id_card_no":"360731194904173370"}</t>
+  </si>
+  <si>
+    <t>{"name":"有桂花","id_card_no":"654324193012089344"}</t>
+  </si>
+  <si>
+    <t>{"name":"酆桂香","id_card_no":"510131196106202143"}</t>
+  </si>
+  <si>
+    <t>{"name":"皮杰","id_card_no":"430412193703172193"}</t>
+  </si>
+  <si>
+    <t>{"name":"戎玉兰","id_card_no":"211011196208152932"}</t>
+  </si>
+  <si>
+    <t>{"name":"那俊","id_card_no":"50024019720309672X"}</t>
+  </si>
+  <si>
+    <t>{"name":"刘敏","id_card_no":"320114195510161930"}</t>
+  </si>
+  <si>
+    <t>{"name":"沃英","id_card_no":"130803197901130739"}</t>
+  </si>
+  <si>
+    <t>{"name":"孙岩","id_card_no":"110114198702163804"}</t>
+  </si>
+  <si>
+    <t>{"name":"闾丽丽","id_card_no":"210111198608233137"}</t>
+  </si>
+  <si>
+    <t>{"name":"能岩","id_card_no":"532900197503038948"}</t>
+  </si>
+  <si>
+    <t>{"name":"钮彬","id_card_no":"450423199107138941"}</t>
+  </si>
+  <si>
+    <t>{"name":"强芳","id_card_no":"370831193504033646"}</t>
   </si>
 </sst>
 </file>
@@ -2041,7 +2047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2129,19 +2135,19 @@
         <v>240</v>
       </c>
       <c r="M2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2176,19 +2182,19 @@
         <v>241</v>
       </c>
       <c r="M3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2220,19 +2226,19 @@
         <v>241</v>
       </c>
       <c r="M4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2264,19 +2270,19 @@
         <v>241</v>
       </c>
       <c r="M5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2311,19 +2317,19 @@
         <v>242</v>
       </c>
       <c r="M6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2361,19 +2367,19 @@
         <v>242</v>
       </c>
       <c r="M7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2408,19 +2414,19 @@
         <v>243</v>
       </c>
       <c r="M8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2455,19 +2461,19 @@
         <v>244</v>
       </c>
       <c r="M9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2505,19 +2511,19 @@
         <v>245</v>
       </c>
       <c r="M10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2555,19 +2561,19 @@
         <v>245</v>
       </c>
       <c r="M11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2602,19 +2608,19 @@
         <v>246</v>
       </c>
       <c r="M12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2649,19 +2655,19 @@
         <v>246</v>
       </c>
       <c r="M13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2699,19 +2705,19 @@
         <v>247</v>
       </c>
       <c r="M14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2746,19 +2752,19 @@
         <v>248</v>
       </c>
       <c r="M15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2793,19 +2799,19 @@
         <v>249</v>
       </c>
       <c r="M16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2843,19 +2849,19 @@
         <v>249</v>
       </c>
       <c r="M17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q17" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2890,19 +2896,19 @@
         <v>250</v>
       </c>
       <c r="M18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q18" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2937,19 +2943,19 @@
         <v>250</v>
       </c>
       <c r="M19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O19">
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2987,19 +2993,19 @@
         <v>251</v>
       </c>
       <c r="M20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -3034,19 +3040,19 @@
         <v>252</v>
       </c>
       <c r="M21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q21" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -3081,19 +3087,19 @@
         <v>253</v>
       </c>
       <c r="M22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O22">
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q22" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -3131,19 +3137,19 @@
         <v>253</v>
       </c>
       <c r="M23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N23" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O23">
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q23" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -3178,19 +3184,19 @@
         <v>254</v>
       </c>
       <c r="M24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O24">
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q24" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -3222,19 +3228,19 @@
         <v>255</v>
       </c>
       <c r="M25" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -3269,19 +3275,19 @@
         <v>256</v>
       </c>
       <c r="M26" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N26" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q26" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -3316,19 +3322,19 @@
         <v>257</v>
       </c>
       <c r="M27" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N27" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O27">
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q27" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -3363,19 +3369,19 @@
         <v>258</v>
       </c>
       <c r="M28" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O28">
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q28" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -3410,19 +3416,19 @@
         <v>259</v>
       </c>
       <c r="M29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N29" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q29" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -3457,19 +3463,19 @@
         <v>260</v>
       </c>
       <c r="M30" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N30" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="P30" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -3504,19 +3510,19 @@
         <v>261</v>
       </c>
       <c r="M31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O31">
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q31" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -3551,19 +3557,19 @@
         <v>262</v>
       </c>
       <c r="M32" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N32" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O32">
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q32" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -3598,19 +3604,19 @@
         <v>263</v>
       </c>
       <c r="M33" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N33" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
       <c r="P33" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q33" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -3645,19 +3651,19 @@
         <v>264</v>
       </c>
       <c r="M34" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N34" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O34">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P34" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -3692,19 +3698,19 @@
         <v>265</v>
       </c>
       <c r="M35" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N35" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P35" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -3742,19 +3748,19 @@
         <v>266</v>
       </c>
       <c r="M36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q36" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3789,19 +3795,19 @@
         <v>267</v>
       </c>
       <c r="M37" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N37" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
       <c r="P37" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q37" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -3836,19 +3842,19 @@
         <v>268</v>
       </c>
       <c r="M38" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N38" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q38" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -3886,19 +3892,19 @@
         <v>269</v>
       </c>
       <c r="M39" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N39" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P39" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q39" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -3933,19 +3939,19 @@
         <v>270</v>
       </c>
       <c r="M40" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N40" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O40">
         <v>2</v>
       </c>
       <c r="P40" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q40" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -3980,19 +3986,19 @@
         <v>271</v>
       </c>
       <c r="M41" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N41" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O41">
         <v>0</v>
       </c>
       <c r="P41" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q41" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -4030,19 +4036,19 @@
         <v>272</v>
       </c>
       <c r="M42" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N42" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O42">
         <v>3</v>
       </c>
       <c r="P42" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q42" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -4077,19 +4083,19 @@
         <v>273</v>
       </c>
       <c r="M43" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N43" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O43">
         <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q43" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -4124,19 +4130,19 @@
         <v>274</v>
       </c>
       <c r="M44" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N44" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P44" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q44" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -4171,19 +4177,19 @@
         <v>275</v>
       </c>
       <c r="M45" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N45" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q45" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -4221,19 +4227,19 @@
         <v>276</v>
       </c>
       <c r="M46" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N46" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P46" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q46" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -4268,19 +4274,19 @@
         <v>277</v>
       </c>
       <c r="M47" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N47" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O47">
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q47" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -4315,19 +4321,19 @@
         <v>277</v>
       </c>
       <c r="M48" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N48" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O48">
         <v>1</v>
       </c>
       <c r="P48" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q48" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -4365,19 +4371,19 @@
         <v>277</v>
       </c>
       <c r="M49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N49" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O49">
         <v>1</v>
       </c>
       <c r="P49" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q49" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -4412,19 +4418,19 @@
         <v>278</v>
       </c>
       <c r="M50" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N50" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O50">
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q50" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -4462,19 +4468,19 @@
         <v>278</v>
       </c>
       <c r="M51" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N51" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O51">
         <v>1</v>
       </c>
       <c r="P51" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q51" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -4512,19 +4518,19 @@
         <v>278</v>
       </c>
       <c r="M52" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N52" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O52">
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q52" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -4562,19 +4568,19 @@
         <v>279</v>
       </c>
       <c r="M53" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N53" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O53">
         <v>2</v>
       </c>
       <c r="P53" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q53" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -4609,19 +4615,19 @@
         <v>280</v>
       </c>
       <c r="M54" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N54" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O54" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P54" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q54" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -4659,19 +4665,19 @@
         <v>281</v>
       </c>
       <c r="M55" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N55" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O55" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P55" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q55" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -4706,19 +4712,19 @@
         <v>282</v>
       </c>
       <c r="M56" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N56" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O56" s="2">
         <v>45841</v>
       </c>
       <c r="P56" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q56" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -4756,19 +4762,19 @@
         <v>283</v>
       </c>
       <c r="M57" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N57" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O57" s="2">
         <v>44015</v>
       </c>
       <c r="P57" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q57" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -4803,19 +4809,19 @@
         <v>284</v>
       </c>
       <c r="M58" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N58" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O58" s="2">
         <v>41428</v>
       </c>
       <c r="P58" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q58" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -4853,19 +4859,19 @@
         <v>285</v>
       </c>
       <c r="M59" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N59" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O59" s="2">
         <v>43254</v>
       </c>
       <c r="P59" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q59" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -4900,19 +4906,19 @@
         <v>286</v>
       </c>
       <c r="M60" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N60" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O60" s="2">
         <v>41428</v>
       </c>
       <c r="P60" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q60" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4950,19 +4956,19 @@
         <v>287</v>
       </c>
       <c r="M61" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N61" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O61" s="2">
         <v>43254</v>
       </c>
       <c r="P61" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q61" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4997,19 +5003,19 @@
         <v>288</v>
       </c>
       <c r="M62" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N62" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O62" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P62" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q62" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -5047,19 +5053,19 @@
         <v>289</v>
       </c>
       <c r="M63" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N63" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O63" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P63" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q63" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -5094,19 +5100,19 @@
         <v>290</v>
       </c>
       <c r="M64" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N64" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O64" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P64" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q64" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -5144,19 +5150,19 @@
         <v>291</v>
       </c>
       <c r="M65" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N65" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O65" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P65" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q65" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -5191,19 +5197,19 @@
         <v>292</v>
       </c>
       <c r="M66" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N66" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P66" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q66" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -5238,19 +5244,19 @@
         <v>293</v>
       </c>
       <c r="M67" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N67" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O67">
         <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q67" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -5285,19 +5291,19 @@
         <v>294</v>
       </c>
       <c r="M68" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N68" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O68">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P68" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q68" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -5332,19 +5338,19 @@
         <v>295</v>
       </c>
       <c r="M69" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N69" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O69" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P69" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q69" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -5382,19 +5388,19 @@
         <v>296</v>
       </c>
       <c r="M70" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N70" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O70" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P70" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q70" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -5429,19 +5435,19 @@
         <v>297</v>
       </c>
       <c r="M71" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N71" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O71" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P71" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q71" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -5479,19 +5485,54 @@
         <v>298</v>
       </c>
       <c r="M72" t="s">
+        <v>300</v>
+      </c>
+      <c r="N72" t="s">
+        <v>301</v>
+      </c>
+      <c r="O72" t="s">
+        <v>311</v>
+      </c>
+      <c r="P72" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>71</v>
+      </c>
+      <c r="C73">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>44</v>
+      </c>
+      <c r="L73" t="s">
         <v>299</v>
       </c>
-      <c r="N72" t="s">
-        <v>300</v>
-      </c>
-      <c r="O72" t="s">
-        <v>310</v>
-      </c>
-      <c r="P72" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>383</v>
+      <c r="M73" t="s">
+        <v>300</v>
+      </c>
+      <c r="N73" t="s">
+        <v>301</v>
+      </c>
+      <c r="P73" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
